--- a/doc/操作マニュアル.xlsx
+++ b/doc/操作マニュアル.xlsx
@@ -218,13 +218,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>370914</xdr:colOff>
+      <xdr:colOff>372101</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>65762</xdr:rowOff>
+      <xdr:rowOff>67695</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -238,7 +238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="171450"/>
-          <a:ext cx="4485714" cy="7304762"/>
+          <a:ext cx="4486901" cy="7306695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -256,13 +256,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>370914</xdr:colOff>
+      <xdr:colOff>372101</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>103862</xdr:rowOff>
+      <xdr:rowOff>105795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -276,7 +276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="8096250"/>
-          <a:ext cx="4485714" cy="7304762"/>
+          <a:ext cx="4486901" cy="7306695"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1760,7 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A158"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A156" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
